--- a/biology/Médecine/1539_en_santé_et_médecine/1539_en_santé_et_médecine.xlsx
+++ b/biology/Médecine/1539_en_santé_et_médecine/1539_en_santé_et_médecine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1539_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1539_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet article présente les faits marquants de l'année 1539 en santé et médecine.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>1539_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1539_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Événement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Giovanni Battista Da Monte (1489-1551 commence à enseigner la médecine clinique à Padoue[1],[2],[3].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Giovanni Battista Da Monte (1489-1551 commence à enseigner la médecine clinique à Padoue.</t>
         </is>
       </c>
     </row>
@@ -523,7 +537,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1539_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1539_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -541,9 +555,11 @@
           <t>Publication</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Jérôme Bock (1498-1554), médecin et botaniste, « l'un des plus anciens pharmacologistes d'Allemagne[4],[5] », fait paraître à Strasbourg, chez Wendelin Hirel, son New Kreütter Büch (« Nouveau Livre des herbes[6] »), dont la première édition illustrée sortira des mêmes presses en 1546[7].</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Jérôme Bock (1498-1554), médecin et botaniste, « l'un des plus anciens pharmacologistes d'Allemagne, », fait paraître à Strasbourg, chez Wendelin Hirel, son New Kreütter Büch (« Nouveau Livre des herbes »), dont la première édition illustrée sortira des mêmes presses en 1546.</t>
         </is>
       </c>
     </row>
@@ -553,7 +569,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>1539_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1539_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -571,12 +587,14 @@
           <t>Naissances</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>12 août : Michel Marescot[8] (mort en 1605), Premier médecin[9] du roi Henri IV.
-Nicolas de Nancel (mort en 1610), médecin et humaniste français[10].
-Jean Riolan (mort en 1605), médecin français[11].
-Nicolas Barnaud (mort vers 1604), médecin et alchimiste français[12].</t>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>12 août : Michel Marescot (mort en 1605), Premier médecin du roi Henri IV.
+Nicolas de Nancel (mort en 1610), médecin et humaniste français.
+Jean Riolan (mort en 1605), médecin français.
+Nicolas Barnaud (mort vers 1604), médecin et alchimiste français.</t>
         </is>
       </c>
     </row>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>1539_en_sant%C3%A9_et_m%C3%A9decine</t>
+          <t>1539_en_santé_et_médecine</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,10 +622,12 @@
           <t>Décès</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>5 juillet : Antoine-Marie Zaccaria (né en 1502), médecin et prêtre italien, canonisé par l'Église catholique, fondateur de l'ordre des Barnabites[13].
-Gilbert Griffi (né à une date inconnue), chancelier de l'université de médecine de Montpellier, titulaire de l'une des quatre chaires fondées en 1498 par le roi Louis XII[14], les trois autres régents étant Jean Garcin († 1502), Robert Pierre († 1502) et Honoré Piquet († 1513[15]).</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 juillet : Antoine-Marie Zaccaria (né en 1502), médecin et prêtre italien, canonisé par l'Église catholique, fondateur de l'ordre des Barnabites.
+Gilbert Griffi (né à une date inconnue), chancelier de l'université de médecine de Montpellier, titulaire de l'une des quatre chaires fondées en 1498 par le roi Louis XII, les trois autres régents étant Jean Garcin († 1502), Robert Pierre († 1502) et Honoré Piquet († 1513).</t>
         </is>
       </c>
     </row>
